--- a/biology/Botanique/Olax/Olax.xlsx
+++ b/biology/Botanique/Olax/Olax.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Olax est un genre de plantes dicotylédones de la famille des Olacaceae.
-Ces espèces sont des arbres ou des arbustes. Il est présent notamment en Asie et en Afrique. On retrouve plusieurs espèces endémiques de Madagascar. Olax psittacorum (le « bois d'effort[1]») est une espèce en danger, endémique de La Réunion et de Maurice.
+Ces espèces sont des arbres ou des arbustes. Il est présent notamment en Asie et en Afrique. On retrouve plusieurs espèces endémiques de Madagascar. Olax psittacorum (le « bois d'effort») est une espèce en danger, endémique de La Réunion et de Maurice.
 Le bois de certaines espèces du genre Olax peut être utilisé en menuiserie.
-Certaines des espèces malgaches sont nommées « maitsoririnina[2] ». Néanmoins, ce nom est aussi utilisé pour désigner d'autres espèces d'arbres et même de plantes herbacées qui appartiennent à d'autres familles et à d'autres genres.
+Certaines des espèces malgaches sont nommées « maitsoririnina ». Néanmoins, ce nom est aussi utilisé pour désigner d'autres espèces d'arbres et même de plantes herbacées qui appartiennent à d'autres familles et à d'autres genres.
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Olax antsiranensis Z.S.Rogers &amp; Malécot &amp; Sikes
 Olax capuronii Z.S.Rogers &amp; Malécot &amp; Sikes
